--- a/target/test-classes/TestData/TestData.xlsx
+++ b/target/test-classes/TestData/TestData.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huudo\eclipse-workspace\SeleniumEcommerceProject\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1036D062-9A84-41C5-B13A-0986A7BAB047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC6D0B9-4D6B-4BD6-BC77-49F03920DDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1176" yWindow="2544" windowWidth="17280" windowHeight="9420" tabRatio="818" activeTab="1" xr2:uid="{B8DD05B4-F4AA-44F0-A850-E75DA1B9B9A0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="818" activeTab="1" xr2:uid="{B8DD05B4-F4AA-44F0-A850-E75DA1B9B9A0}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
-    <sheet name="credentials" sheetId="6" r:id="rId2"/>
-    <sheet name="IndexPage" sheetId="3" r:id="rId3"/>
-    <sheet name="LoginPage" sheetId="2" r:id="rId4"/>
-    <sheet name="SignUpPage" sheetId="5" r:id="rId5"/>
+    <sheet name="Credentials" sheetId="6" r:id="rId2"/>
+    <sheet name="Email" sheetId="7" r:id="rId3"/>
+    <sheet name="ProductDetails" sheetId="8" r:id="rId4"/>
+    <sheet name="SearchProduct" sheetId="9" r:id="rId5"/>
+    <sheet name="IndexPage" sheetId="3" r:id="rId6"/>
+    <sheet name="LoginPage" sheetId="2" r:id="rId7"/>
+    <sheet name="SignUpPage" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="147">
   <si>
     <t>Page Classes</t>
   </si>
@@ -100,9 +103,6 @@
   </si>
   <si>
     <t>AccountCreationTest</t>
-  </si>
-  <si>
-    <t>createAccountTest</t>
   </si>
   <si>
     <t>productAvailabilityTest</t>
@@ -841,9 +841,6 @@
 Wishlist should be displayed</t>
   </si>
   <si>
-    <t xml:space="preserve">Sanity </t>
-  </si>
-  <si>
     <t xml:space="preserve">Smoke </t>
   </si>
   <si>
@@ -875,6 +872,50 @@
   </si>
   <si>
     <t>Huudoan03</t>
+  </si>
+  <si>
+    <t>verifyAccountCreationPageTest
+signUpTest</t>
+  </si>
+  <si>
+    <t>Smoke
+Sanity</t>
+  </si>
+  <si>
+    <t>fName</t>
+  </si>
+  <si>
+    <t>lName</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Doan</t>
+  </si>
+  <si>
+    <t>Pham</t>
+  </si>
+  <si>
+    <t>huudoan@gmail.com</t>
+  </si>
+  <si>
+    <t>Huudoan1</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>Shirt</t>
+  </si>
+  <si>
+    <t>shirt</t>
+  </si>
+  <si>
+    <t>short</t>
   </si>
 </sst>
 </file>
@@ -973,7 +1014,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1022,11 +1063,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1357,7 +1399,7 @@
   <dimension ref="B2:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1365,18 +1407,19 @@
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
     <col min="6" max="6" width="47.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
@@ -1389,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>3</v>
@@ -1406,7 +1449,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>19</v>
@@ -1423,7 +1466,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>21</v>
@@ -1439,30 +1482,30 @@
         <v>15</v>
       </c>
       <c r="D6" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>123</v>
+      <c r="D7" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1475,30 +1518,30 @@
         <v>16</v>
       </c>
       <c r="D8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="E9" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1509,13 +1552,13 @@
         <v>17</v>
       </c>
       <c r="D10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1530,35 +1573,35 @@
         <v>12</v>
       </c>
       <c r="C12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="E12" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C14" s="16"/>
     </row>
     <row r="15" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C16" s="16">
         <v>3</v>
@@ -1566,7 +1609,7 @@
     </row>
     <row r="17" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C17" s="16">
         <v>3</v>
@@ -1585,30 +1628,30 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="19"/>
+    <col min="1" max="1" width="21.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B2" s="9" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1621,6 +1664,117 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB880A8E-A06D-4A5D-BF43-93FFA923BED8}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{52DD22FB-AC98-444C-9998-950DA8CF4990}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BAEA0E-D218-4B4E-BCF1-7CA2E7B251DF}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A844087-BC13-4B3E-A1E9-FFACEDD5EF04}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FACADF-9128-41F4-B561-002173A0815F}">
   <dimension ref="A1:L29"/>
   <sheetViews>
@@ -1641,40 +1795,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
@@ -1683,18 +1837,18 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="1"/>
@@ -1707,18 +1861,18 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="1"/>
@@ -1731,18 +1885,18 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1755,18 +1909,18 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1779,18 +1933,18 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1803,18 +1957,18 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1827,18 +1981,18 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1851,18 +2005,18 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -2154,7 +2308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D0DAE4-11A2-47A3-ABA9-6B28EA9B527C}">
   <dimension ref="A1:L19"/>
   <sheetViews>
@@ -2179,40 +2333,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
@@ -2221,22 +2375,22 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -2247,22 +2401,22 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -2273,22 +2427,22 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -2299,24 +2453,24 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2327,24 +2481,24 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -2355,24 +2509,24 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -2383,24 +2537,24 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -2411,24 +2565,24 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -2439,24 +2593,24 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -2467,24 +2621,24 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -2495,24 +2649,24 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -2620,7 +2774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4CF1D2-5558-412B-9231-855A7259847A}">
   <dimension ref="A1:L19"/>
   <sheetViews>
@@ -2645,40 +2799,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="171.6" x14ac:dyDescent="0.3">
@@ -2687,22 +2841,22 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -2713,22 +2867,22 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -2739,22 +2893,22 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -2765,24 +2919,24 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2793,24 +2947,24 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -2821,24 +2975,24 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -2849,24 +3003,24 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -2877,24 +3031,24 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -2905,24 +3059,24 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -2933,24 +3087,24 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -2961,24 +3115,24 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>

--- a/target/test-classes/TestData/TestData.xlsx
+++ b/target/test-classes/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huudo\eclipse-workspace\SeleniumEcommerceProject\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC6D0B9-4D6B-4BD6-BC77-49F03920DDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6921CF-7969-458B-889D-C43C45D849A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="818" activeTab="1" xr2:uid="{B8DD05B4-F4AA-44F0-A850-E75DA1B9B9A0}"/>
+    <workbookView xWindow="5304" yWindow="0" windowWidth="17280" windowHeight="9420" tabRatio="818" activeTab="1" xr2:uid="{B8DD05B4-F4AA-44F0-A850-E75DA1B9B9A0}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -868,12 +868,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>huudoan03@gmail.com</t>
-  </si>
-  <si>
-    <t>Huudoan03</t>
-  </si>
-  <si>
     <t>verifyAccountCreationPageTest
 signUpTest</t>
   </si>
@@ -916,13 +910,19 @@
   </si>
   <si>
     <t>short</t>
+  </si>
+  <si>
+    <t>huudoan1204@gmail.com</t>
+  </si>
+  <si>
+    <t>Huudoan1204</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -957,13 +957,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1014,7 +1007,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1064,11 +1057,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1499,10 +1491,10 @@
         <v>22</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>116</v>
@@ -1628,13 +1620,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
@@ -1648,10 +1640,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1679,13 +1671,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>135</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>137</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>130</v>
@@ -1693,16 +1685,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>139</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1725,15 +1717,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B2" s="16">
         <v>1</v>
@@ -1756,17 +1748,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/TestData/TestData.xlsx
+++ b/target/test-classes/TestData/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huudo\eclipse-workspace\SeleniumEcommerceProject\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Testing\Selenium-Ecommerce-Project\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6921CF-7969-458B-889D-C43C45D849A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F3816D-5868-4D7E-A168-74EEF1119477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5304" yWindow="0" windowWidth="17280" windowHeight="9420" tabRatio="818" activeTab="1" xr2:uid="{B8DD05B4-F4AA-44F0-A850-E75DA1B9B9A0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="818" activeTab="1" xr2:uid="{B8DD05B4-F4AA-44F0-A850-E75DA1B9B9A0}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -1007,7 +1007,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1061,6 +1061,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1617,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBF257F-0C91-4CA8-AE2A-D2D6C0B2A637}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1645,6 +1646,9 @@
       <c r="B2" s="9" t="s">
         <v>146</v>
       </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
